--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P16_trail13 Features.xlsx
@@ -4646,7 +4646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4657,29 +4657,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4700,115 +4698,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4825,72 +4813,66 @@
         <v>1.500372491573576e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>2.521432744574575</v>
+        <v>9.249663183174612e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>7.411183145630588</v>
+        <v>2.027411584614005e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.249663183174612e-07</v>
+        <v>-0.09479835315270607</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.027411584614005e-06</v>
+        <v>0.253463012427526</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.09479835315270607</v>
+        <v>0.07304182284553783</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.253463012427526</v>
+        <v>1.653256910208073</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.07304182284553783</v>
+        <v>1.51365222456048</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.588663950950019</v>
+        <v>4.119579892184954</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.51365222456048</v>
+        <v>3.081731494337277e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.119579892184954</v>
+        <v>48006072.85072752</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.081731494337277e-15</v>
+        <v>2.268539568276633e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>48006072.85072752</v>
+        <v>7.102106106559205</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.268539568276633e-06</v>
+        <v>0.0001519394296008855</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>7.102106106559205</v>
+        <v>8.347756307587305</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001519394296008855</v>
+        <v>1.325804256332011</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.347756307587305</v>
+        <v>0.01058790452596655</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.325804256332011</v>
+        <v>2.872183509918504</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01058790452596655</v>
+        <v>0.9490777066859972</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.872183509918504</v>
+        <v>1.814064965165986</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9490777066859972</v>
+        <v>12</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.814064965165986</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1686802615730484</v>
       </c>
     </row>
@@ -4905,72 +4887,66 @@
         <v>1.21228786040678e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.090338961934502</v>
+        <v>7.055100867798287e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>5.027547973388252</v>
+        <v>2.015051959958623e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>7.055100867798287e-07</v>
+        <v>-0.0884569045492801</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.015051959958623e-06</v>
+        <v>0.2217593020632841</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.0884569045492801</v>
+        <v>0.0568524102343823</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2217593020632841</v>
+        <v>1.652474866140718</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.0568524102343823</v>
+        <v>1.481506992853437</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.591788273955257</v>
+        <v>4.269821090862727</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.481506992853437</v>
+        <v>2.868674678061877e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.269821090862727</v>
+        <v>51610659.62333785</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.868674678061877e-15</v>
+        <v>2.115204591111912e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>51610659.62333785</v>
+        <v>7.641174528708608</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.115204591111912e-06</v>
+        <v>0.0001643222131009433</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>7.641174528708608</v>
+        <v>8.98013739254241</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001643222131009433</v>
+        <v>1.315796145774064</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.98013739254241</v>
+        <v>0.01325141447302069</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.315796145774064</v>
+        <v>2.767226367486268</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01325141447302069</v>
+        <v>0.9491884544861711</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.767226367486268</v>
+        <v>1.816844974157546</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9491884544861711</v>
+        <v>12</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.816844974157546</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1696039500661466</v>
       </c>
     </row>
@@ -4985,72 +4961,66 @@
         <v>1.01956568789827e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.721523182571598</v>
+        <v>5.503490056275327e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3.16229706264202</v>
+        <v>2.005643359735897e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.503490056275327e-07</v>
+        <v>-0.08103234651061306</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.005643359735897e-06</v>
+        <v>0.1870470658848823</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.08103234651061306</v>
+        <v>0.04145099101670027</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1870470658848823</v>
+        <v>1.659754307138596</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04145099101670027</v>
+        <v>1.451379036983626</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.602221724062167</v>
+        <v>4.62554072377827</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.451379036983626</v>
+        <v>2.44441893000797e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.62554072377827</v>
+        <v>61714771.03738531</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.44441893000797e-15</v>
+        <v>1.776174694576533e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>61714771.03738531</v>
+        <v>9.31009006864965</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.776174694576533e-06</v>
+        <v>0.0001865689989735243</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>9.31009006864965</v>
+        <v>10.67689865441713</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001865689989735243</v>
+        <v>1.209949358423617</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.67689865441713</v>
+        <v>0.02126815036786567</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.209949358423617</v>
+        <v>2.463712353486279</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02126815036786567</v>
+        <v>0.9503800119623507</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.463712353486279</v>
+        <v>1.790651022290201</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9503800119623507</v>
+        <v>12</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.790651022290201</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1753674657502471</v>
       </c>
     </row>
@@ -5065,72 +5035,66 @@
         <v>8.897600921837573e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.463999685784339</v>
+        <v>4.451679066968678e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.034794216699558</v>
+        <v>1.998281121160482e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4.451679066968678e-07</v>
+        <v>-0.07403708847726444</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.998281121160482e-06</v>
+        <v>0.1594731195055691</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.07403708847726444</v>
+        <v>0.0308553663740517</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1594731195055691</v>
+        <v>1.683672280394763</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0308553663740517</v>
+        <v>1.520953327569525</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.633061386265348</v>
+        <v>3.92267406263034</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.520953327569525</v>
+        <v>1.968665712321138e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.92267406263034</v>
+        <v>75751267.4195721</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.968665712321138e-15</v>
+        <v>1.460992704096776e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>75751267.4195721</v>
+        <v>11.29670491357447</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.460992704096776e-06</v>
+        <v>0.0001830641116563979</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>11.29670491357447</v>
+        <v>10.20728982545946</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001830641116563979</v>
+        <v>1.196390799672263</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.20728982545946</v>
+        <v>0.01907322381564932</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.196390799672263</v>
+        <v>2.588180995982322</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01907322381564932</v>
+        <v>0.953037578543864</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.588180995982322</v>
+        <v>1.791371608049491</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.953037578543864</v>
+        <v>12</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.791371608049491</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1718578099144718</v>
       </c>
     </row>
@@ -5507,7 +5471,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.907297329431058</v>
+        <v>2.055860131385717</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.001852727221138</v>
@@ -5596,7 +5560,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.899278809101262</v>
+        <v>2.054444099987239</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.985774346318608</v>
@@ -5685,7 +5649,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.899643245104678</v>
+        <v>2.054120543489933</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.259637442180155</v>
@@ -5774,7 +5738,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.902733507501398</v>
+        <v>2.059958674733096</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.771754973186117</v>
@@ -5863,7 +5827,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.883470278291174</v>
+        <v>2.041690002477169</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.341459313202363</v>
@@ -5952,7 +5916,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.887409466348659</v>
+        <v>2.048153744944163</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.266350483773841</v>
@@ -6041,7 +6005,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.874932564954762</v>
+        <v>2.025683202707268</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.679319301667216</v>
@@ -6130,7 +6094,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.868787999323658</v>
+        <v>2.011838762098385</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.992301062299571</v>
@@ -6219,7 +6183,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.877483476292559</v>
+        <v>2.020240392213664</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.851210706915278</v>
@@ -6308,7 +6272,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.864213799482268</v>
+        <v>2.013904537876412</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.336603858900313</v>
@@ -6397,7 +6361,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.842156813828738</v>
+        <v>1.98797866455622</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.564692106480716</v>
@@ -6486,7 +6450,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.841867295364813</v>
+        <v>1.979294766030887</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.023187566966392</v>
@@ -6575,7 +6539,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.834256312296992</v>
+        <v>1.966543768699858</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.050157070194387</v>
@@ -6664,7 +6628,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.843360408418758</v>
+        <v>1.978477267081491</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.58666284173664</v>
@@ -6753,7 +6717,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.848897962122231</v>
+        <v>1.983649750006956</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.769443605185707</v>
@@ -6842,7 +6806,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.848241763165666</v>
+        <v>1.987333706303082</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.029631658969317</v>
@@ -6931,7 +6895,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.852259162573218</v>
+        <v>1.997857723840269</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.493578868007903</v>
@@ -7020,7 +6984,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.861694407338343</v>
+        <v>2.013686259673457</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.395116558366445</v>
@@ -7109,7 +7073,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.868447602584848</v>
+        <v>2.023758612079485</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.764757895855753</v>
@@ -7198,7 +7162,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.869242278326026</v>
+        <v>2.025017741574274</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.161601015678685</v>
@@ -7287,7 +7251,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.881741448610489</v>
+        <v>2.034816253735671</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.196469402167422</v>
@@ -7376,7 +7340,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.886734817787544</v>
+        <v>2.038617344095781</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.281913923718865</v>
@@ -7465,7 +7429,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.895342971837388</v>
+        <v>2.04749326154799</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.506925589373569</v>
@@ -7554,7 +7518,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.886111614180621</v>
+        <v>2.0396053341656</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.112503705526329</v>
@@ -7643,7 +7607,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.886647062143435</v>
+        <v>2.037304359475484</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.327364637824737</v>
@@ -7732,7 +7696,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.908772479227535</v>
+        <v>2.066546533776573</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.479131476946977</v>
@@ -7821,7 +7785,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.897822350803438</v>
+        <v>2.056709165714997</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.79886807435375</v>
@@ -7910,7 +7874,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.908955445159106</v>
+        <v>2.069262377722231</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.519259642006438</v>
@@ -7999,7 +7963,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.900621187566062</v>
+        <v>2.060647140499019</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.680945892534123</v>
@@ -8088,7 +8052,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.909951020366687</v>
+        <v>2.063016902929151</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.860342564007997</v>
@@ -8177,7 +8141,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.897777456012748</v>
+        <v>2.045172048632725</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.010246031161023</v>
@@ -8266,7 +8230,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.900136739098893</v>
+        <v>2.043625073133731</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.374400507895366</v>
@@ -8355,7 +8319,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.89113454736478</v>
+        <v>2.031669940945994</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.549976879738451</v>
@@ -8444,7 +8408,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.891668171142433</v>
+        <v>2.033711919729821</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.713189101283988</v>
@@ -8533,7 +8497,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.901783052398218</v>
+        <v>2.056770257581879</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.260948515255605</v>
@@ -8622,7 +8586,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.888085963187632</v>
+        <v>2.045872118926718</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.681559211492093</v>
@@ -8711,7 +8675,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.900171671273862</v>
+        <v>2.060712420107233</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.567847274098324</v>
@@ -8800,7 +8764,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.899875713960138</v>
+        <v>2.059362946439241</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.682942820608904</v>
@@ -8889,7 +8853,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.906116498684219</v>
+        <v>2.056979272151669</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.419776645582573</v>
@@ -8978,7 +8942,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.914613712043827</v>
+        <v>2.067890555418519</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.60457414919053</v>
@@ -9067,7 +9031,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.908443620923032</v>
+        <v>2.063568219586315</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.937151375398385</v>
@@ -9156,7 +9120,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.90982356688734</v>
+        <v>2.069161368577494</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.97246269270402</v>
@@ -9245,7 +9209,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.907429244840277</v>
+        <v>2.070199793942217</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.444661543833317</v>
@@ -9334,7 +9298,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.90648417373492</v>
+        <v>2.070890661719052</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.788219227351465</v>
@@ -9423,7 +9387,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.889486813665964</v>
+        <v>2.051375052322508</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.617290524554722</v>
@@ -9512,7 +9476,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.899821655135243</v>
+        <v>2.063995173784539</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.181408979268956</v>
@@ -9601,7 +9565,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.888280047381908</v>
+        <v>2.038238785412695</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.246910648619515</v>
@@ -9690,7 +9654,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.889022499210036</v>
+        <v>2.046868468954584</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.834022997382972</v>
@@ -9779,7 +9743,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.887825054108373</v>
+        <v>2.045434419410718</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.537085479567533</v>
@@ -10065,7 +10029,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.899480985911656</v>
+        <v>2.00315521170918</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.602924822543413</v>
@@ -10154,7 +10118,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.886253105256428</v>
+        <v>1.990546479658507</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.589490951055895</v>
@@ -10243,7 +10207,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.882904517175449</v>
+        <v>1.98610137868235</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.426927574925067</v>
@@ -10332,7 +10296,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.88491416586987</v>
+        <v>1.98851109197142</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.640816212559232</v>
@@ -10421,7 +10385,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.875368172378154</v>
+        <v>1.97896122676004</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.375290266451478</v>
@@ -10510,7 +10474,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.866589696632284</v>
+        <v>1.972038921786236</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.320405784577727</v>
@@ -10599,7 +10563,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.864935310573889</v>
+        <v>1.966866592868644</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.524843216460745</v>
@@ -10688,7 +10652,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.868204709977878</v>
+        <v>1.965568795768826</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.268214496787543</v>
@@ -10777,7 +10741,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.869720558169711</v>
+        <v>1.965734226670997</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.574535144668729</v>
@@ -10866,7 +10830,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.870806356754522</v>
+        <v>1.970807175424031</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.276619359116965</v>
@@ -10955,7 +10919,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.861689158550105</v>
+        <v>1.962808767244447</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.618148625374571</v>
@@ -11044,7 +11008,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.867168899430595</v>
+        <v>1.961555565335412</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.407925301752408</v>
@@ -11133,7 +11097,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.855752896546977</v>
+        <v>1.94841332983679</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.165324362030191</v>
@@ -11222,7 +11186,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.87293012589855</v>
+        <v>1.967021325176244</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.528288037688176</v>
@@ -11311,7 +11275,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.871869331230639</v>
+        <v>1.969125188144567</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.641149544908935</v>
@@ -11400,7 +11364,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.872510873130785</v>
+        <v>1.971698161583412</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.365910380460285</v>
@@ -11489,7 +11453,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.881392503954725</v>
+        <v>1.980605620101279</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.68898600310205</v>
@@ -11578,7 +11542,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.882307520512715</v>
+        <v>1.984825026421884</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.61160982187576</v>
@@ -11667,7 +11631,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.884379257386819</v>
+        <v>1.988421028892682</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.474523607227425</v>
@@ -11756,7 +11720,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.888239027819923</v>
+        <v>1.992852377182027</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.425374296017247</v>
@@ -11845,7 +11809,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.892393222790204</v>
+        <v>1.99754001386652</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.639731401688605</v>
@@ -11934,7 +11898,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.896107100351166</v>
+        <v>1.999570132520644</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.485978389194782</v>
@@ -12023,7 +11987,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.898031128378378</v>
+        <v>1.999595126657099</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.765856004862629</v>
@@ -12112,7 +12076,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.88507166331449</v>
+        <v>1.987854956896741</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.944178247169867</v>
@@ -12201,7 +12165,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.902098709009058</v>
+        <v>2.002089860788964</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.656438518431623</v>
@@ -12290,7 +12254,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.899610825940395</v>
+        <v>1.998094771385093</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.565221048669351</v>
@@ -12379,7 +12343,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.885137994754965</v>
+        <v>1.989241088145477</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.502897803206896</v>
@@ -12468,7 +12432,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.905718374157451</v>
+        <v>2.008434122263833</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.561716003249405</v>
@@ -12557,7 +12521,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.898839521508097</v>
+        <v>1.992599190820305</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.51150084443338</v>
@@ -12646,7 +12610,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.886081702382026</v>
+        <v>1.985158338320947</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.377335245495057</v>
@@ -12735,7 +12699,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.884014381007027</v>
+        <v>1.981904236212494</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.524359568867332</v>
@@ -12824,7 +12788,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.904770114103397</v>
+        <v>1.999917720194747</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.190380691361038</v>
@@ -12913,7 +12877,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.904541235704972</v>
+        <v>1.998661315412491</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.473091964018568</v>
@@ -13002,7 +12966,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.902843560468595</v>
+        <v>1.996225401680399</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.603458296875202</v>
@@ -13091,7 +13055,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.899952320845933</v>
+        <v>1.999146947671117</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.367699998250491</v>
@@ -13180,7 +13144,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.911035441812512</v>
+        <v>2.009030610534347</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.44092580935204</v>
@@ -13269,7 +13233,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.916357514547318</v>
+        <v>2.016000668911535</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.486044005957227</v>
@@ -13358,7 +13322,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.919642444343608</v>
+        <v>2.019458149051103</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.565985473131649</v>
@@ -13447,7 +13411,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.916094643153052</v>
+        <v>2.015794622951609</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.494451873244956</v>
@@ -13536,7 +13500,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.912755755879543</v>
+        <v>2.015886357246312</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.570035827086479</v>
@@ -13625,7 +13589,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.925432644598067</v>
+        <v>2.031281311039023</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.622902417513378</v>
@@ -13714,7 +13678,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.929102401090072</v>
+        <v>2.03566469141698</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.535893988929435</v>
@@ -13803,7 +13767,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.909418876889808</v>
+        <v>2.018306248147224</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.292813380189864</v>
@@ -13892,7 +13856,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.927993557147559</v>
+        <v>2.03897555876085</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.934423351113685</v>
@@ -13981,7 +13945,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.926707254819078</v>
+        <v>2.037804769227204</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.524785400139486</v>
@@ -14070,7 +14034,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.932420011152975</v>
+        <v>2.038254759573909</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.620889972756749</v>
@@ -14159,7 +14123,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.913960689620555</v>
+        <v>2.021128492604458</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.402312479170815</v>
@@ -14248,7 +14212,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.909634806285966</v>
+        <v>2.023065297068635</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.618583693185196</v>
@@ -14337,7 +14301,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.91003927420382</v>
+        <v>2.024548636529502</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.592429137333681</v>
@@ -14623,7 +14587,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.048508905504791</v>
+        <v>2.131633288695849</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>7.513833975298421</v>
@@ -14712,7 +14676,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.05130717896445</v>
+        <v>2.134307034969772</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>6.514697185743062</v>
@@ -14801,7 +14765,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.052530241213728</v>
+        <v>2.135082150796962</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>6.456604635753849</v>
@@ -14890,7 +14854,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.055108189953292</v>
+        <v>2.135809530251821</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>6.525772474287013</v>
@@ -14979,7 +14943,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.052512070569289</v>
+        <v>2.133306557880308</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>5.341226775976129</v>
@@ -15068,7 +15032,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.053608773668026</v>
+        <v>2.133721910123111</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>6.668570149321784</v>
@@ -15157,7 +15121,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.053011645895376</v>
+        <v>2.134033080633759</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5.603683095816842</v>
@@ -15246,7 +15210,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.050624067007092</v>
+        <v>2.132012077390829</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>6.66203351632407</v>
@@ -15335,7 +15299,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.047921399385325</v>
+        <v>2.130034361748068</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>7.463142789556313</v>
@@ -15424,7 +15388,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.049986332656554</v>
+        <v>2.131059578728342</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>5.918141954732428</v>
@@ -15513,7 +15477,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.047745851170177</v>
+        <v>2.129137674915702</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>6.114172685835662</v>
@@ -15602,7 +15566,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.042273891486632</v>
+        <v>2.124652315775488</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>6.991795773424148</v>
@@ -15691,7 +15655,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.039336270096654</v>
+        <v>2.122006372908836</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5.746137438527781</v>
@@ -15780,7 +15744,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.040454877310284</v>
+        <v>2.122976427623071</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>5.677372599640849</v>
@@ -15869,7 +15833,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.040448947998268</v>
+        <v>2.125187363412857</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>5.999030414618268</v>
@@ -15958,7 +15922,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.039482553331596</v>
+        <v>2.124784201357238</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.743001749672568</v>
@@ -16047,7 +16011,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.040221928111248</v>
+        <v>2.124411368475681</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>5.678677579712501</v>
@@ -16136,7 +16100,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.041891365209858</v>
+        <v>2.125461244814407</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>6.490304898480335</v>
@@ -16225,7 +16189,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.04243168437749</v>
+        <v>2.126068861225844</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>7.581085123706438</v>
@@ -16314,7 +16278,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.04285956885935</v>
+        <v>2.127486385117376</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>6.307580750582124</v>
@@ -16403,7 +16367,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.04014965935424</v>
+        <v>2.125392696422817</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>6.779063302529647</v>
@@ -16492,7 +16456,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.039790616772641</v>
+        <v>2.12495793084803</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>5.5531023365824</v>
@@ -16581,7 +16545,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.040492301131389</v>
+        <v>2.124250329908872</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>6.90927155970402</v>
@@ -16670,7 +16634,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.042424827881043</v>
+        <v>2.125365486115171</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>7.874658480005406</v>
@@ -16759,7 +16723,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.041361868985509</v>
+        <v>2.124308719980948</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>5.392347747140744</v>
@@ -16848,7 +16812,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.043282525775052</v>
+        <v>2.125832481361072</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>7.524328529010866</v>
@@ -16937,7 +16901,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.045726960438199</v>
+        <v>2.127912012802377</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>6.043185841134127</v>
@@ -17026,7 +16990,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.048883065935398</v>
+        <v>2.130448043996651</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.890372155755482</v>
@@ -17115,7 +17079,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.053450653355135</v>
+        <v>2.133028593188262</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>5.783581451244411</v>
@@ -17204,7 +17168,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.050963081011387</v>
+        <v>2.13050442267435</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>8.649344741403549</v>
@@ -17293,7 +17257,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.049061745525802</v>
+        <v>2.128696840216224</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>8.628732705643401</v>
@@ -17382,7 +17346,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.046309914868099</v>
+        <v>2.126950169194048</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>5.752214964699402</v>
@@ -17471,7 +17435,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.044787602049424</v>
+        <v>2.126382491566762</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>6.356945852716428</v>
@@ -17560,7 +17524,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.045691680330706</v>
+        <v>2.127749826195922</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>6.336962403467635</v>
@@ -17649,7 +17613,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.049500530032</v>
+        <v>2.130366758905973</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.360723870855066</v>
@@ -17738,7 +17702,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.055060364686388</v>
+        <v>2.133775582140225</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>7.611114604002611</v>
@@ -17827,7 +17791,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.050866495985669</v>
+        <v>2.130305999429045</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>5.683395081597038</v>
@@ -17916,7 +17880,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.047052342785753</v>
+        <v>2.128573035160878</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>5.223098568427983</v>
@@ -18005,7 +17969,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.042423840663999</v>
+        <v>2.125385965378891</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>6.895451585643249</v>
@@ -18094,7 +18058,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.042639952974322</v>
+        <v>2.126460487471376</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.622477137226478</v>
@@ -18183,7 +18147,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.040942708815957</v>
+        <v>2.125348157399679</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>8.064042113594892</v>
@@ -18272,7 +18236,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.044166222099011</v>
+        <v>2.12942638864401</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>7.641725887867649</v>
@@ -18361,7 +18325,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.042243947995524</v>
+        <v>2.127474342583973</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>5.141802294285226</v>
@@ -18450,7 +18414,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.040294966071373</v>
+        <v>2.125758468766214</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>7.290615487024223</v>
@@ -18539,7 +18503,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.036191048051493</v>
+        <v>2.123604431059897</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>6.400978454482568</v>
@@ -18628,7 +18592,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.033491837747782</v>
+        <v>2.120304950833876</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.509558015140493</v>
@@ -18717,7 +18681,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.031541433722849</v>
+        <v>2.118063136004419</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>6.302298370557642</v>
@@ -18806,7 +18770,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.030850934753244</v>
+        <v>2.118949871045019</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>6.095642726592393</v>
@@ -18895,7 +18859,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.030050237710493</v>
+        <v>2.118452785775874</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.917557716211281</v>
@@ -19181,7 +19145,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.153882254752984</v>
+        <v>2.201140112297382</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>8.125395022671569</v>
@@ -19270,7 +19234,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.156472804007088</v>
+        <v>2.203076529979705</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5.990377272380879</v>
@@ -19359,7 +19323,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.163376801460405</v>
+        <v>2.20735008068108</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>8.217264158850556</v>
@@ -19448,7 +19412,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.163598535438756</v>
+        <v>2.207634998977081</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>7.151453530814733</v>
@@ -19537,7 +19501,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.164561959811221</v>
+        <v>2.208499115786394</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>6.069975690542762</v>
@@ -19626,7 +19590,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.165912042384539</v>
+        <v>2.209933331184495</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>11.19398194010784</v>
@@ -19715,7 +19679,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.165245287938843</v>
+        <v>2.209704872390268</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5.970491708040909</v>
@@ -19804,7 +19768,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.16452403634127</v>
+        <v>2.209553032509438</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>7.808867394188297</v>
@@ -19893,7 +19857,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.162571367900326</v>
+        <v>2.20902178717519</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>9.92857772549195</v>
@@ -19982,7 +19946,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.159674157717434</v>
+        <v>2.207185437235961</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>7.139260074001919</v>
@@ -20071,7 +20035,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.161095458539145</v>
+        <v>2.20822788914735</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>8.334363082210054</v>
@@ -20160,7 +20124,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.156300088283013</v>
+        <v>2.206314680940144</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>9.077922547473692</v>
@@ -20249,7 +20213,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.153815545168206</v>
+        <v>2.204994224940223</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>6.546034222112844</v>
@@ -20338,7 +20302,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.153288504486709</v>
+        <v>2.204311614665464</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>8.062235795293027</v>
@@ -20427,7 +20391,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.155659349957586</v>
+        <v>2.205988676040888</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>6.587337077310139</v>
@@ -20516,7 +20480,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.154941185561531</v>
+        <v>2.205598990981191</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>7.407948406365414</v>
@@ -20605,7 +20569,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.149911497758427</v>
+        <v>2.202121479095934</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>7.217579354693933</v>
@@ -20694,7 +20658,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.150987504471026</v>
+        <v>2.202277586208778</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>6.780756280337631</v>
@@ -20783,7 +20747,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.151191333190535</v>
+        <v>2.201980224361998</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>6.599497851934125</v>
@@ -20872,7 +20836,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.151363255376374</v>
+        <v>2.202300267507703</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>8.541067668191864</v>
@@ -20961,7 +20925,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.151901037702231</v>
+        <v>2.202306600298062</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>6.57533643842546</v>
@@ -21050,7 +21014,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.151768104399987</v>
+        <v>2.203528086934958</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>6.166086710016462</v>
@@ -21139,7 +21103,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.150796132390485</v>
+        <v>2.203486585834352</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>8.509049364862076</v>
@@ -21228,7 +21192,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.153005480172554</v>
+        <v>2.204780526274327</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>9.530118489089096</v>
@@ -21317,7 +21281,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.154423738343184</v>
+        <v>2.205381221577566</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>7.763652244288862</v>
@@ -21406,7 +21370,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.155645234655984</v>
+        <v>2.205753007403903</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>6.799846872806265</v>
@@ -21495,7 +21459,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.158718272895027</v>
+        <v>2.207299539853231</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>6.165868795458626</v>
@@ -21584,7 +21548,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.159458155563345</v>
+        <v>2.20759826149791</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>7.123658591504212</v>
@@ -21673,7 +21637,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.163294712779543</v>
+        <v>2.208279082362232</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>6.017655687548292</v>
@@ -21762,7 +21726,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.16070808825276</v>
+        <v>2.207855962691919</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>7.857531869563993</v>
@@ -21851,7 +21815,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.160477288414299</v>
+        <v>2.207781308743845</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>9.01071411963164</v>
@@ -21940,7 +21904,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.165599467461435</v>
+        <v>2.21013611901641</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>6.617482431635179</v>
@@ -22029,7 +21993,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.164485526031521</v>
+        <v>2.209859734587118</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>7.619633951310331</v>
@@ -22118,7 +22082,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.164733077576927</v>
+        <v>2.210606658677506</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>10.44355729478976</v>
@@ -22207,7 +22171,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.167377274213996</v>
+        <v>2.210139509932021</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.874930550166284</v>
@@ -22296,7 +22260,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.167806135640973</v>
+        <v>2.209581112454241</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>9.198883244341321</v>
@@ -22385,7 +22349,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.165342748563471</v>
+        <v>2.20864099296449</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>7.096524371429523</v>
@@ -22474,7 +22438,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.164344831927908</v>
+        <v>2.208318278899795</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>6.203318433095727</v>
@@ -22563,7 +22527,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.160967820862701</v>
+        <v>2.207185200215829</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>10.39086159999161</v>
@@ -22652,7 +22616,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.160446215750021</v>
+        <v>2.206763759994564</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>6.334025149713606</v>
@@ -22741,7 +22705,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.160118188009466</v>
+        <v>2.204784596689184</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>8.447809005301181</v>
@@ -22830,7 +22794,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.161085249568047</v>
+        <v>2.204090120661817</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>9.753234108790343</v>
@@ -22919,7 +22883,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.159955753008242</v>
+        <v>2.203211901921241</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>6.192433308155476</v>
@@ -23008,7 +22972,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.15613801938118</v>
+        <v>2.200187338406588</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>7.552372968808501</v>
@@ -23097,7 +23061,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.15413575174872</v>
+        <v>2.199998894743288</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>8.190749757967568</v>
@@ -23186,7 +23150,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.152104684423899</v>
+        <v>2.198921108203874</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.484262968726955</v>
@@ -23275,7 +23239,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.148670923055259</v>
+        <v>2.197075018723334</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>6.698235280161008</v>
@@ -23364,7 +23328,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.149197858240707</v>
+        <v>2.197453003898623</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>6.288464813218591</v>
@@ -23453,7 +23417,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.148864085166968</v>
+        <v>2.198153546443487</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>5.903641984603558</v>
@@ -23739,7 +23703,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.955441756382349</v>
+        <v>2.080197505167437</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.242215473229262</v>
@@ -23828,7 +23792,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.962047679312888</v>
+        <v>2.091061918650242</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.842498844904235</v>
@@ -23917,7 +23881,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.960102159806723</v>
+        <v>2.088241669639959</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.288915912923123</v>
@@ -24006,7 +23970,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.957720597915244</v>
+        <v>2.087164531791267</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.539925096462529</v>
@@ -24095,7 +24059,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.93918717889085</v>
+        <v>2.068874532444333</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.132171310194988</v>
@@ -24184,7 +24148,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.93100071374488</v>
+        <v>2.06224685054788</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.883002866831376</v>
@@ -24273,7 +24237,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.937694440785932</v>
+        <v>2.067707006169256</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.971349590573813</v>
@@ -24362,7 +24326,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.942473823042244</v>
+        <v>2.065397956986969</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.433716224118541</v>
@@ -24451,7 +24415,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.947372664185932</v>
+        <v>2.064364948905468</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.779933048489875</v>
@@ -24540,7 +24504,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.935697204558901</v>
+        <v>2.056452253651151</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.914157126943425</v>
@@ -24629,7 +24593,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.946619550135527</v>
+        <v>2.070220632903179</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.043951518847547</v>
@@ -24718,7 +24682,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.950837306981532</v>
+        <v>2.0662834384159</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.676534802310151</v>
@@ -24807,7 +24771,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.954962081047058</v>
+        <v>2.065967541719561</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.67645693395876</v>
@@ -24896,7 +24860,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.952316013948497</v>
+        <v>2.062160266009187</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.959383069517114</v>
@@ -24985,7 +24949,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.945374611643404</v>
+        <v>2.053986218118562</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.5940982593501</v>
@@ -25074,7 +25038,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.950866071726651</v>
+        <v>2.067075352078796</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.309914259316987</v>
@@ -25163,7 +25127,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.946048911194992</v>
+        <v>2.067559560864039</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.070352621451534</v>
@@ -25252,7 +25216,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.944011193069165</v>
+        <v>2.070073890395267</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.146467576843117</v>
@@ -25341,7 +25305,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.946773853876582</v>
+        <v>2.072651632860971</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.428320839609813</v>
@@ -25430,7 +25394,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.958847443566978</v>
+        <v>2.08352074823231</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.66136296670537</v>
@@ -25519,7 +25483,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.970778704308155</v>
+        <v>2.093760205527413</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.269344316049256</v>
@@ -25608,7 +25572,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.976744761531743</v>
+        <v>2.094471098805442</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.298744317136718</v>
@@ -25697,7 +25661,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.977836535640675</v>
+        <v>2.095469925897092</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.970922031992251</v>
@@ -25786,7 +25750,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.961860431686444</v>
+        <v>2.081516340967452</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.739636135153582</v>
@@ -25875,7 +25839,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.968718423402032</v>
+        <v>2.090311884098838</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.190988069580181</v>
@@ -25964,7 +25928,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.965257699724309</v>
+        <v>2.091229662117128</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.3775212410801</v>
@@ -26053,7 +26017,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.961360537080564</v>
+        <v>2.091846718651932</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.237434515164676</v>
@@ -26142,7 +26106,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.961399797375128</v>
+        <v>2.093295382504133</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.372511080313748</v>
@@ -26231,7 +26195,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.960730029193706</v>
+        <v>2.097361342422752</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.833777549948123</v>
@@ -26320,7 +26284,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.967385991312797</v>
+        <v>2.09879334011283</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.526316323798316</v>
@@ -26409,7 +26373,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.969647894689269</v>
+        <v>2.095467108320579</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.640034158770041</v>
@@ -26498,7 +26462,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.973084894182931</v>
+        <v>2.096270911123035</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.27398257311538</v>
@@ -26587,7 +26551,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.96089555587221</v>
+        <v>2.082335031692585</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.453648165019552</v>
@@ -26676,7 +26640,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.959367067751413</v>
+        <v>2.083177471954489</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.62844452550787</v>
@@ -26765,7 +26729,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.958741600715188</v>
+        <v>2.095536558679802</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.589790259228594</v>
@@ -26854,7 +26818,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.950311206134047</v>
+        <v>2.092478092774105</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.878682257448234</v>
@@ -26943,7 +26907,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.954901307810795</v>
+        <v>2.099231774572627</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.183288866837592</v>
@@ -27032,7 +26996,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.956887930376818</v>
+        <v>2.099103278200384</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.154086970991849</v>
@@ -27121,7 +27085,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.965769397909513</v>
+        <v>2.104061765004771</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.369592780592247</v>
@@ -27210,7 +27174,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.962527881351643</v>
+        <v>2.098665279620203</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.211501785181633</v>
@@ -27299,7 +27263,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.961388123104463</v>
+        <v>2.100134094344911</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.80068251673246</v>
@@ -27388,7 +27352,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.960497184957777</v>
+        <v>2.102624263768243</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.169297532370469</v>
@@ -27477,7 +27441,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.94494143939663</v>
+        <v>2.087372616857001</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.470155970008529</v>
@@ -27566,7 +27530,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.950635422483378</v>
+        <v>2.096822900300322</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.0845088361935</v>
@@ -27655,7 +27619,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.946264538017076</v>
+        <v>2.094963437775281</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.913922790838273</v>
@@ -27744,7 +27708,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.948822605873582</v>
+        <v>2.093861840026885</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.631550900287365</v>
@@ -27833,7 +27797,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.947179462279247</v>
+        <v>2.090965702408258</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.137574487006526</v>
@@ -27922,7 +27886,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.958178025745855</v>
+        <v>2.107503054360063</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.024811462233405</v>
@@ -28011,7 +27975,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.9454439639916</v>
+        <v>2.090819144767162</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.591208264775878</v>
@@ -28297,7 +28261,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>2.107277096712965</v>
+        <v>2.16807770044308</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>5.67002011214714</v>
@@ -28386,7 +28350,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>2.108735528984963</v>
+        <v>2.171370606778562</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>5.704978834183722</v>
@@ -28475,7 +28439,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2.114494481124154</v>
+        <v>2.175772824781073</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>4.268522787658401</v>
@@ -28564,7 +28528,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>2.120810937203172</v>
+        <v>2.180277852422695</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>5.003351389301478</v>
@@ -28653,7 +28617,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>2.112047052856255</v>
+        <v>2.17527682629986</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>4.653045934433533</v>
@@ -28742,7 +28706,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>2.111891226596034</v>
+        <v>2.174537301942672</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>5.607916120266684</v>
@@ -28831,7 +28795,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>2.101542666262341</v>
+        <v>2.168234285841179</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>5.383901746528245</v>
@@ -28920,7 +28884,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>2.093228798784639</v>
+        <v>2.163229854833471</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>6.840337268636804</v>
@@ -29009,7 +28973,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2.097896620391793</v>
+        <v>2.167707245745065</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>5.773811048795578</v>
@@ -29098,7 +29062,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2.091234817682633</v>
+        <v>2.163320350656669</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.991062950170007</v>
@@ -29187,7 +29151,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>2.079847366962138</v>
+        <v>2.155803440663159</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>5.257554931689518</v>
@@ -29276,7 +29240,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>2.074793110965712</v>
+        <v>2.153243929448195</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>6.181990135589025</v>
@@ -29365,7 +29329,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>2.06642747500616</v>
+        <v>2.147616594695205</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>5.923700269285662</v>
@@ -29454,7 +29418,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>2.074646253726385</v>
+        <v>2.153068338583384</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>6.527056974908727</v>
@@ -29543,7 +29507,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>2.069069331601173</v>
+        <v>2.148810301288433</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.855716205840471</v>
@@ -29632,7 +29596,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>2.067777626924532</v>
+        <v>2.14705258344397</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.556455137541587</v>
@@ -29721,7 +29685,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>2.074325810249626</v>
+        <v>2.151033084675398</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>5.175107128929912</v>
@@ -29810,7 +29774,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>2.080573036121439</v>
+        <v>2.154140250467807</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>6.577287268595732</v>
@@ -29899,7 +29863,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>2.08336696418465</v>
+        <v>2.155792721627952</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>6.192389034093859</v>
@@ -29988,7 +29952,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>2.081616932008409</v>
+        <v>2.153887774694333</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>6.73898952557409</v>
@@ -30077,7 +30041,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>2.092396803072205</v>
+        <v>2.161501906158833</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.530805134487089</v>
@@ -30166,7 +30130,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>2.095774262205572</v>
+        <v>2.164601438225878</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.989541562976414</v>
@@ -30255,7 +30219,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>2.101358300603496</v>
+        <v>2.169167295691235</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>6.050346627296313</v>
@@ -30344,7 +30308,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>2.094460241060296</v>
+        <v>2.164290163978197</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>6.752029414975839</v>
@@ -30433,7 +30397,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>2.096530181851593</v>
+        <v>2.164837011144295</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>6.884958921670126</v>
@@ -30522,7 +30486,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>2.108591798710151</v>
+        <v>2.172744599073389</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>5.48418368228513</v>
@@ -30611,7 +30575,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>2.102711417337112</v>
+        <v>2.169334092091646</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>5.241018584655054</v>
@@ -30700,7 +30664,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>2.109502259489024</v>
+        <v>2.174292133121249</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>5.356036898708583</v>
@@ -30789,7 +30753,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>2.103425093708213</v>
+        <v>2.168685234093807</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>5.769925794248446</v>
@@ -30878,7 +30842,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>2.106756400204573</v>
+        <v>2.171551040443784</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>6.729895991133067</v>
@@ -30967,7 +30931,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>2.098535577768661</v>
+        <v>2.169062696435008</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>6.302214317123641</v>
@@ -31056,7 +31020,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>2.097475984940719</v>
+        <v>2.167403215279241</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.847959154867821</v>
@@ -31145,7 +31109,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>2.0857728967899</v>
+        <v>2.161131710988365</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>5.399590617989092</v>
@@ -31234,7 +31198,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2.087826846317046</v>
+        <v>2.163038226346839</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>5.741852224510853</v>
@@ -31323,7 +31287,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2.09834550646353</v>
+        <v>2.169735658536563</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>5.404298330542549</v>
@@ -31412,7 +31376,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2.091737305641891</v>
+        <v>2.164254415448297</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>6.094393112512014</v>
@@ -31501,7 +31465,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2.094263100686752</v>
+        <v>2.166989113614317</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.789207353123532</v>
@@ -31590,7 +31554,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2.093257407782831</v>
+        <v>2.166373133505933</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.633043970044729</v>
@@ -31679,7 +31643,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2.092338533309349</v>
+        <v>2.165573396257289</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>6.023857702801169</v>
@@ -31768,7 +31732,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2.098209194294817</v>
+        <v>2.169584219878025</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.876185610034565</v>
@@ -31857,7 +31821,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2.092538988130867</v>
+        <v>2.16436199140842</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.536070487983651</v>
@@ -31946,7 +31910,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2.091748224757867</v>
+        <v>2.164131658536336</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>5.531449734686528</v>
@@ -32035,7 +31999,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2.092019698582638</v>
+        <v>2.163618043761257</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.810826711345962</v>
@@ -32124,7 +32088,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2.092616295181482</v>
+        <v>2.164766746618119</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>5.486555308602109</v>
@@ -32213,7 +32177,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2.085470207658701</v>
+        <v>2.160126288538379</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.952084056147454</v>
@@ -32302,7 +32266,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2.089683438218902</v>
+        <v>2.161978996771515</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.614278656647882</v>
@@ -32391,7 +32355,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2.088537051678697</v>
+        <v>2.157388091259109</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5.599904374335483</v>
@@ -32480,7 +32444,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2.092300478258669</v>
+        <v>2.161569302713735</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.840058705657365</v>
@@ -32569,7 +32533,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>2.091466902692814</v>
+        <v>2.160950999052403</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.747103521738134</v>
